--- a/UCS/Information/量表題目總匯 (1).xlsx
+++ b/UCS/Information/量表題目總匯 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyunchan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0970\Desktop\questionareSystem\UCS\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025BF259-DA55-C943-B8F3-27C148D9B9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA56CC-788D-4C64-9E13-2C82067D0344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="7" xr2:uid="{A909502E-6599-42D1-B57C-8C5208ECABD4}"/>
+    <workbookView xWindow="5200" yWindow="1590" windowWidth="9980" windowHeight="5030" firstSheet="3" activeTab="7" xr2:uid="{A909502E-6599-42D1-B57C-8C5208ECABD4}"/>
   </bookViews>
   <sheets>
     <sheet name="運動員因應技能量表" sheetId="1" r:id="rId1"/>
@@ -739,9 +739,6 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSdkGJwGAxMgr4XitLpszdtX3EmFEPmMJmeSW6jHtF5G8WT2Bw/viewform?usp=sf_link</t>
   </si>
   <si>
-    <t>(3) 運動心理技能量表</t>
-  </si>
-  <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSdsHuJDFwA_2QemLKhxcaYm44PA3Ivh5B58eolse5nYvECL2A/viewform?usp=sf_link</t>
   </si>
   <si>
@@ -779,13 +776,29 @@
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfUVfwJ8Fx4fQw9E3foZNQrzj_YkGadAf_5JqRUtjC_0k_Oqg/viewform?usp=sf_link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>運動心理技能量表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -850,6 +863,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -892,14 +912,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1222,7 +1242,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1379,7 +1399,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1550,7 +1570,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1671,10 +1691,10 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
@@ -1682,19 +1702,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B4" t="s">
@@ -1702,25 +1722,25 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
@@ -1728,25 +1748,25 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B12" t="s">
@@ -1754,19 +1774,19 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B15" t="s">
@@ -1774,19 +1794,19 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>102</v>
       </c>
@@ -1812,10 +1832,10 @@
       <selection activeCell="A22" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B1" t="s">
@@ -1823,19 +1843,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
@@ -1843,67 +1863,67 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B15" t="s">
@@ -1911,19 +1931,19 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B18" t="s">
@@ -1931,25 +1951,25 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B22" t="s">
@@ -1957,19 +1977,19 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>132</v>
       </c>
@@ -1995,7 +2015,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2081,7 +2101,7 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2174,81 +2194,81 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2265,5 +2285,6 @@
     <hyperlink ref="B9" r:id="rId9" xr:uid="{58E24477-71B4-3F4F-899C-4A7C281A44AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>